--- a/m52 PnP/Rev2.0 documents/BOM-speeduino compatible PCB for m52 rev2.0.xlsx
+++ b/m52 PnP/Rev2.0 documents/BOM-speeduino compatible PCB for m52 rev2.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Documents\GitHub\Speeduino-M5x-PCBs\m52 PnP\Rev2.0 documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB97F959-8859-47D1-A1A3-AC0DF748DEE7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AEC4C69-C2D8-40D7-BC87-3F042BA7DC3A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3225" yWindow="2640" windowWidth="23475" windowHeight="12540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30990" yWindow="3570" windowWidth="23475" windowHeight="12540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Component List" sheetId="1" r:id="rId1"/>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="300">
   <si>
     <t>Value</t>
   </si>
@@ -899,9 +899,6 @@
     <t>WM3702-ND</t>
   </si>
   <si>
-    <t>Hardware for motronic case</t>
-  </si>
-  <si>
     <r>
       <t>C19,</t>
     </r>
@@ -913,15 +910,6 @@
       </rPr>
       <t>C27</t>
     </r>
-  </si>
-  <si>
-    <t>Speeduino vr-conditioner</t>
-  </si>
-  <si>
-    <t>vr-conditioner</t>
-  </si>
-  <si>
-    <t>max 9926 vr-conditioner</t>
   </si>
   <si>
     <r>
@@ -1208,6 +1196,30 @@
   </si>
   <si>
     <t>LED1,LED2,LED3,LED4,LED5,LED6</t>
+  </si>
+  <si>
+    <t>Hardware for ms41 case</t>
+  </si>
+  <si>
+    <t>Thermal pads</t>
+  </si>
+  <si>
+    <t>Thermal pad</t>
+  </si>
+  <si>
+    <t>Adhesive Thermal Pad for TO-220</t>
+  </si>
+  <si>
+    <t>Aavid</t>
+  </si>
+  <si>
+    <t>53-77-9ACG</t>
+  </si>
+  <si>
+    <t>53-77-9ACG-ND</t>
+  </si>
+  <si>
+    <t>532-53-77-9ACG</t>
   </si>
 </sst>
 </file>
@@ -1980,8 +1992,8 @@
   </sheetPr>
   <dimension ref="A1:S63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:XFD50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2396,7 +2408,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>16</v>
@@ -2458,7 +2470,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>17</v>
@@ -2520,13 +2532,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>11</v>
@@ -2536,13 +2548,13 @@
         <v>9</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="J10" s="33" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K10" s="5">
         <v>0.3</v>
@@ -2673,7 +2685,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>92</v>
@@ -2735,7 +2747,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>93</v>
@@ -2797,7 +2809,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>27</v>
@@ -2857,7 +2869,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>28</v>
@@ -3376,7 +3388,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>89</v>
@@ -3501,13 +3513,13 @@
         <v>1</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>195</v>
@@ -3517,13 +3529,13 @@
         <v>20</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="I28" s="26" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="K28" s="6">
         <v>0.25</v>
@@ -3711,7 +3723,7 @@
         <v>17</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>43</v>
@@ -3771,7 +3783,7 @@
         <v>3</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C33" s="12">
         <v>680</v>
@@ -3893,7 +3905,7 @@
         <v>6</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>164</v>
@@ -3955,7 +3967,7 @@
         <v>3</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>91</v>
@@ -4017,7 +4029,7 @@
         <v>10</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>54</v>
@@ -4077,27 +4089,27 @@
         <v>3</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C38" s="3">
         <v>150</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="K38" s="5">
         <v>0.27</v>
@@ -4137,7 +4149,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>180</v>
@@ -4154,7 +4166,7 @@
         <v>182</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>183</v>
@@ -4287,29 +4299,29 @@
         <v>1</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3" t="s">
         <v>38</v>
       </c>
       <c r="H42" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="I42" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="J42" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="I42" s="30" t="s">
-        <v>261</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>262</v>
       </c>
       <c r="K42" s="5">
         <v>0.59</v>
@@ -4325,16 +4337,16 @@
       </c>
       <c r="O42" s="4"/>
       <c r="P42" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="Q42" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="R42" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="S42" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="43" spans="1:19" ht="26.25" thickBot="1">
@@ -4467,7 +4479,7 @@
         <v>2</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>94</v>
@@ -4591,13 +4603,13 @@
         <v>2</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>217</v>
@@ -4607,13 +4619,13 @@
         <v>38</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="I47" s="12" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="K47" s="6">
         <v>1.41</v>
@@ -4675,7 +4687,7 @@
     <row r="49" spans="1:19" ht="16.5" thickBot="1">
       <c r="A49" s="15"/>
       <c r="B49" s="4" t="s">
-        <v>241</v>
+        <v>292</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -4699,33 +4711,64 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="25.5" customHeight="1" thickBot="1">
+    <row r="50" spans="1:19" ht="16.5" customHeight="1" thickBot="1">
       <c r="A50" s="17">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>244</v>
+        <v>293</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>245</v>
+        <v>294</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>96</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="E50" s="3"/>
       <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
-      <c r="N50" s="6"/>
+      <c r="G50" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="H50" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I50" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="K50" s="6">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L50" s="6">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="M50" s="6">
+        <f>K50*A50</f>
+        <v>7.7000000000000011</v>
+      </c>
+      <c r="N50" s="6">
+        <f>L50*A50</f>
+        <v>9.4220000000000006</v>
+      </c>
       <c r="O50" s="4"/>
-      <c r="P50" s="4"/>
+      <c r="P50" s="4" t="str">
+        <f>IF(NOT(I50=""),A50&amp;","&amp;I50,"")</f>
+        <v>14,53-77-9ACG-ND</v>
+      </c>
+      <c r="Q50" t="str">
+        <f>A50&amp;"x "&amp;C50</f>
+        <v>14x Thermal pad</v>
+      </c>
+      <c r="R50" t="str">
+        <f>IF(NOT(J50=""),J50&amp;"|"&amp;A50,"")</f>
+        <v>532-53-77-9ACG|14</v>
+      </c>
+      <c r="S50" t="str">
+        <f>H50&amp;" "&amp;A50</f>
+        <v>53-77-9ACG 14</v>
+      </c>
     </row>
     <row r="51" spans="1:19" ht="16.5" thickBot="1">
       <c r="A51" s="17">
@@ -4866,7 +4909,7 @@
     <row r="54" spans="1:19" ht="16.5" thickBot="1">
       <c r="A54" s="15"/>
       <c r="B54" s="11" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C54" s="12"/>
       <c r="D54" s="3"/>
@@ -5020,11 +5063,11 @@
       <c r="L57" s="1"/>
       <c r="M57" s="10">
         <f>SUM(M3:M52)</f>
-        <v>95.19</v>
+        <v>102.89</v>
       </c>
       <c r="N57" s="10">
         <f>SUM(N3:N52)</f>
-        <v>114.67200000000001</v>
+        <v>124.09400000000001</v>
       </c>
       <c r="O57" s="9" t="s">
         <v>65</v>
@@ -5037,12 +5080,12 @@
     </row>
     <row r="62" spans="1:19">
       <c r="B62" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="63" spans="1:19">
       <c r="B63" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>

--- a/m52 PnP/Rev2.0 documents/BOM-speeduino compatible PCB for m52 rev2.0.xlsx
+++ b/m52 PnP/Rev2.0 documents/BOM-speeduino compatible PCB for m52 rev2.0.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Documents\GitHub\Speeduino-M5x-PCBs\m52 PnP\Rev2.0 documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pasi\Documents\GitHub\Speeduino-M5x-PCBs\m52 PnP\Rev2.0 documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AEC4C69-C2D8-40D7-BC87-3F042BA7DC3A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E1E53C-E484-4C66-A6A8-8290D527A6FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30990" yWindow="3570" windowWidth="23475" windowHeight="12540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Component List" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -1597,60 +1597,60 @@
     </xf>
   </cellXfs>
   <cellStyles count="54">
-    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="1" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1993,7 +1993,7 @@
   <dimension ref="A1:S63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:XFD50"/>
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4713,7 +4713,7 @@
     </row>
     <row r="50" spans="1:19" ht="16.5" customHeight="1" thickBot="1">
       <c r="A50" s="17">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>293</v>
@@ -4746,28 +4746,28 @@
       </c>
       <c r="M50" s="6">
         <f>K50*A50</f>
-        <v>7.7000000000000011</v>
+        <v>5.5</v>
       </c>
       <c r="N50" s="6">
         <f>L50*A50</f>
-        <v>9.4220000000000006</v>
+        <v>6.73</v>
       </c>
       <c r="O50" s="4"/>
       <c r="P50" s="4" t="str">
         <f>IF(NOT(I50=""),A50&amp;","&amp;I50,"")</f>
-        <v>14,53-77-9ACG-ND</v>
+        <v>10,53-77-9ACG-ND</v>
       </c>
       <c r="Q50" t="str">
         <f>A50&amp;"x "&amp;C50</f>
-        <v>14x Thermal pad</v>
+        <v>10x Thermal pad</v>
       </c>
       <c r="R50" t="str">
         <f>IF(NOT(J50=""),J50&amp;"|"&amp;A50,"")</f>
-        <v>532-53-77-9ACG|14</v>
+        <v>532-53-77-9ACG|10</v>
       </c>
       <c r="S50" t="str">
         <f>H50&amp;" "&amp;A50</f>
-        <v>53-77-9ACG 14</v>
+        <v>53-77-9ACG 10</v>
       </c>
     </row>
     <row r="51" spans="1:19" ht="16.5" thickBot="1">
@@ -5063,11 +5063,11 @@
       <c r="L57" s="1"/>
       <c r="M57" s="10">
         <f>SUM(M3:M52)</f>
-        <v>102.89</v>
+        <v>100.69</v>
       </c>
       <c r="N57" s="10">
         <f>SUM(N3:N52)</f>
-        <v>124.09400000000001</v>
+        <v>121.40200000000002</v>
       </c>
       <c r="O57" s="9" t="s">
         <v>65</v>

--- a/m52 PnP/Rev2.0 documents/BOM-speeduino compatible PCB for m52 rev2.0.xlsx
+++ b/m52 PnP/Rev2.0 documents/BOM-speeduino compatible PCB for m52 rev2.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pasi\Documents\GitHub\Speeduino-M5x-PCBs\m52 PnP\Rev2.0 documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E1E53C-E484-4C66-A6A8-8290D527A6FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45233F10-098F-4886-B2EE-C041929036FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1992,8 +1992,8 @@
   </sheetPr>
   <dimension ref="A1:S63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2009,6 +2009,7 @@
     <col min="16" max="16" width="27.375" customWidth="1"/>
     <col min="17" max="17" width="28" customWidth="1"/>
     <col min="18" max="18" width="22.375" customWidth="1"/>
+    <col min="19" max="19" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="26.25" thickBot="1">
@@ -2084,12 +2085,8 @@
       <c r="N2" s="3"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4" t="str">
-        <f t="shared" ref="P2:P27" si="0">IF(NOT(I2=""),A2&amp;","&amp;I2,"")</f>
+        <f t="shared" ref="P2:P29" si="0">IF(NOT(I2=""),A2&amp;","&amp;I2,"")</f>
         <v/>
-      </c>
-      <c r="Q2" t="str">
-        <f>A2&amp;"x "&amp;C2</f>
-        <v xml:space="preserve">x </v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="16.5" thickBot="1">
@@ -2146,11 +2143,11 @@
         <v>Capacitor - 1x 10uF</v>
       </c>
       <c r="R3" t="str">
-        <f t="shared" ref="R3:R27" si="4">IF(NOT(J3=""),J3&amp;"|"&amp;A3,"")</f>
+        <f t="shared" ref="R3:R29" si="4">IF(NOT(J3=""),J3&amp;"|"&amp;A3,"")</f>
         <v>80-T356G106K035AT|1</v>
       </c>
       <c r="S3" t="str">
-        <f t="shared" ref="S3:S27" si="5">H3&amp;" "&amp;A3</f>
+        <f t="shared" ref="S3:S29" si="5">H3&amp;" "&amp;A3</f>
         <v>T356G106K035AT 1</v>
       </c>
     </row>
@@ -2945,10 +2942,6 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q17" t="str">
-        <f t="shared" ref="Q17:Q29" si="7">A17&amp;"x "&amp;C17</f>
-        <v xml:space="preserve">x </v>
-      </c>
       <c r="R17" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3007,7 +3000,7 @@
         <v>1,P7307-ND</v>
       </c>
       <c r="Q18" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="Q17:Q29" si="7">A18&amp;"x "&amp;C18</f>
         <v>1x Surge Protection</v>
       </c>
       <c r="R18" t="str">
@@ -3039,10 +3032,6 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q19" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">x </v>
-      </c>
       <c r="R19" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3369,10 +3358,6 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q25" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">x </v>
-      </c>
       <c r="R25" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3553,20 +3538,20 @@
       </c>
       <c r="O28" s="4"/>
       <c r="P28" s="4" t="str">
-        <f>IF(NOT(I29=""),A28&amp;","&amp;I29,"")</f>
-        <v>1,PN2222AFS-ND</v>
+        <f t="shared" si="0"/>
+        <v>1,PN2907ABUFS-ND</v>
       </c>
       <c r="Q28" t="str">
         <f t="shared" si="7"/>
         <v>1x PNP transistor</v>
       </c>
       <c r="R28" t="str">
-        <f>IF(NOT(J29=""),J29&amp;"|"&amp;A28,"")</f>
-        <v>512-PN2222ABU|1</v>
+        <f t="shared" si="4"/>
+        <v>512-PN2907ABU|1</v>
       </c>
       <c r="S28" t="str">
-        <f>H29&amp;" "&amp;A28</f>
-        <v>PN2222ABU 1</v>
+        <f t="shared" si="5"/>
+        <v>PN2907ABU 1</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="16.5" thickBot="1">
@@ -3615,20 +3600,20 @@
       </c>
       <c r="O29" s="4"/>
       <c r="P29" s="4" t="str">
-        <f>IF(NOT(I28=""),A29&amp;","&amp;I28,"")</f>
-        <v>1,PN2907ABUFS-ND</v>
+        <f t="shared" si="0"/>
+        <v>1,PN2222AFS-ND</v>
       </c>
       <c r="Q29" t="str">
         <f t="shared" si="7"/>
         <v>1x NPN transistor</v>
       </c>
       <c r="R29" t="str">
-        <f>IF(NOT(J28=""),J28&amp;"|"&amp;A29,"")</f>
-        <v>512-PN2907ABU|1</v>
+        <f t="shared" si="4"/>
+        <v>512-PN2222ABU|1</v>
       </c>
       <c r="S29" t="str">
-        <f>H28&amp;" "&amp;A29</f>
-        <v>PN2907ABU 1</v>
+        <f t="shared" si="5"/>
+        <v>PN2222ABU 1</v>
       </c>
     </row>
     <row r="30" spans="1:19" ht="16.5" thickBot="1">
@@ -3644,18 +3629,7 @@
       <c r="M30" s="3"/>
       <c r="N30" s="6"/>
       <c r="O30" s="4"/>
-      <c r="P30" s="4" t="e">
-        <f>IF(NOT(#REF!=""),A30&amp;","&amp;#REF!,"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R30" t="e">
-        <f>IF(NOT(#REF!=""),#REF!&amp;"|"&amp;A30,"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="S30" t="e">
-        <f>#REF!&amp;" "&amp;A30</f>
-        <v>#REF!</v>
-      </c>
+      <c r="P30" s="4"/>
     </row>
     <row r="31" spans="1:19" ht="16.5" thickBot="1">
       <c r="A31" s="17">
